--- a/example-inputs/example.xlsx
+++ b/example-inputs/example.xlsx
@@ -764,1798 +764,1417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" t="s">
         <v>130</v>
       </c>
     </row>
